--- a/gramatika.xlsx
+++ b/gramatika.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
   <si>
     <t>[program]</t>
   </si>
@@ -188,9 +188,6 @@
     <t>term eps</t>
   </si>
   <si>
-    <t>param eps</t>
-  </si>
-  <si>
     <t>fun_id expr</t>
   </si>
   <si>
@@ -230,10 +227,22 @@
     <t>; begin . Else  end</t>
   </si>
   <si>
-    <t>[read_id]</t>
-  </si>
-  <si>
     <t>forward begin var</t>
+  </si>
+  <si>
+    <t>varid</t>
+  </si>
+  <si>
+    <t>varid eps</t>
+  </si>
+  <si>
+    <t>, )</t>
+  </si>
+  <si>
+    <t>[t_expr_val]</t>
+  </si>
+  <si>
+    <t>varid, texprval</t>
   </si>
 </sst>
 </file>
@@ -838,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA80"/>
+  <dimension ref="A1:BH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW31" sqref="AW31"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,10 +895,10 @@
     <col min="40" max="40" width="7.28515625" customWidth="1"/>
     <col min="41" max="41" width="6.42578125" customWidth="1"/>
     <col min="42" max="42" width="6.85546875" customWidth="1"/>
-    <col min="43" max="43" width="7" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1004,11 +1013,41 @@
       <c r="AW1" s="9">
         <v>30</v>
       </c>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AX1" s="9">
+        <v>31</v>
+      </c>
+      <c r="AY1" s="9">
+        <v>32</v>
+      </c>
+      <c r="AZ1" s="9">
+        <v>33</v>
+      </c>
+      <c r="BA1" s="9">
+        <v>34</v>
+      </c>
+      <c r="BB1" s="9">
+        <v>35</v>
+      </c>
+      <c r="BC1" s="9">
+        <v>36</v>
+      </c>
+      <c r="BD1" s="9">
+        <v>37</v>
+      </c>
+      <c r="BE1" s="9">
+        <v>38</v>
+      </c>
+      <c r="BF1" s="9">
+        <v>39</v>
+      </c>
+      <c r="BG1" s="9">
+        <v>40</v>
+      </c>
+      <c r="BH1" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -1106,15 +1145,8 @@
       <c r="AO2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ2" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="AP2" s="42"/>
+      <c r="AR2" s="42"/>
       <c r="AS2" s="41" t="s">
         <v>41</v>
       </c>
@@ -1133,8 +1165,11 @@
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
       <c r="AZ2" s="46"/>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>47</v>
@@ -1195,7 +1230,6 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
@@ -1205,8 +1239,9 @@
       <c r="AX3" s="9"/>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="9"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH3" s="9"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
@@ -1232,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>2</v>
@@ -1269,7 +1304,6 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
       <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
@@ -1279,8 +1313,9 @@
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH4" s="9"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
@@ -1304,10 +1339,10 @@
         <v>7</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>7</v>
@@ -1341,7 +1376,6 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
       <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
@@ -1351,8 +1385,9 @@
       <c r="AX5" s="9"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH5" s="9"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1382,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>6</v>
@@ -1415,7 +1450,6 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
       <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
@@ -1425,8 +1459,9 @@
       <c r="AX6" s="9"/>
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH6" s="9"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>16</v>
@@ -1505,7 +1540,6 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
@@ -1515,8 +1549,9 @@
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="9"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH7" s="9"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>11</v>
@@ -1577,7 +1612,6 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
@@ -1587,8 +1621,9 @@
       <c r="AX8" s="9"/>
       <c r="AY8" s="9"/>
       <c r="AZ8" s="9"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH8" s="9"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>18</v>
@@ -1645,7 +1680,6 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
@@ -1655,8 +1689,9 @@
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH9" s="9"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1750,6 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -1725,8 +1759,9 @@
       <c r="AX10" s="9"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH10" s="9"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>20</v>
@@ -1799,7 +1834,6 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
       <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
@@ -1809,8 +1843,9 @@
       <c r="AX11" s="9"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH11" s="9"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1871,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>20</v>
@@ -1871,7 +1906,6 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
       <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
@@ -1881,8 +1915,9 @@
       <c r="AX12" s="9"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="9"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH12" s="9"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -1908,10 +1943,10 @@
         <v>21</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>21</v>
@@ -1951,7 +1986,6 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
@@ -1961,8 +1995,9 @@
       <c r="AX13" s="9"/>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="9"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH13" s="9"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
@@ -1986,10 +2021,10 @@
         <v>48</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>48</v>
@@ -2021,7 +2056,6 @@
         <v>24</v>
       </c>
       <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -2031,8 +2065,9 @@
       <c r="AX14" s="9"/>
       <c r="AY14" s="9"/>
       <c r="AZ14" s="9"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH14" s="9"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
@@ -2087,13 +2122,11 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
+      <c r="AM15" s="9">
+        <v>26</v>
+      </c>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
-      <c r="AP15" s="9">
-        <v>26</v>
-      </c>
-      <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
@@ -2103,8 +2136,11 @@
       <c r="AX15" s="9"/>
       <c r="AY15" s="9"/>
       <c r="AZ15" s="9"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BH15" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
@@ -2163,7 +2199,6 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
@@ -2173,8 +2208,9 @@
       <c r="AX16" s="9"/>
       <c r="AY16" s="9"/>
       <c r="AZ16" s="9"/>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BH16" s="9"/>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -2198,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>33</v>
@@ -2227,13 +2263,12 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
+      <c r="AM17" s="9">
+        <v>30</v>
+      </c>
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="9">
-        <v>30</v>
-      </c>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
@@ -2243,8 +2278,9 @@
       <c r="AX17" s="9"/>
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BH17" s="9"/>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2343,6 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
@@ -2317,8 +2352,9 @@
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BH18" s="9"/>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
@@ -2383,7 +2419,6 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9">
         <v>33</v>
@@ -2402,8 +2437,9 @@
       <c r="AY19" s="9"/>
       <c r="AZ19" s="9"/>
       <c r="BA19" s="9"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BH19" s="9"/>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
@@ -2429,9 +2465,23 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="26"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -2453,9 +2503,20 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="26"/>
-      <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="O21" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
@@ -2483,7 +2544,7 @@
       <c r="M22" s="26"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>48</v>
       </c>
@@ -2505,7 +2566,7 @@
       <c r="M23" s="26"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2593,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
@@ -2553,7 +2614,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
@@ -2576,7 +2637,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>35</v>
       </c>
@@ -2599,7 +2660,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>35</v>
       </c>
@@ -2620,7 +2681,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2702,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +2725,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>40</v>
       </c>
@@ -2687,7 +2748,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>40</v>
       </c>
@@ -2793,17 +2854,33 @@
       <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D38" s="44"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
@@ -2813,9 +2890,15 @@
       <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="44"/>
+      <c r="A39" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D39" s="44"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
@@ -2824,22 +2907,32 @@
       <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C41" s="38"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="33"/>
+      <c r="B42" s="33" t="s">
+        <v>1</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
